--- a/public/sample_uploads/capital_remittance_payments_multi_currency_errors.xlsx
+++ b/public/sample_uploads/capital_remittance_payments_multi_currency_errors.xlsx
@@ -78,7 +78,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="34">
   <si>
-    <t xml:space="preserve">Investor *</t>
+    <t xml:space="preserve">Stakeholder *</t>
   </si>
   <si>
     <t xml:space="preserve">Fund *</t>
@@ -312,28 +312,32 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -534,475 +538,475 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K14" activeCellId="0" sqref="K2:K14"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="20.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="20.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="20.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.31"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="3" t="n">
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>30000</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="H3" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H4" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="H5" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="3" t="n">
+      <c r="G6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>80000</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="G7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>80000</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="G8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>80000</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="2" t="s">
+      <c r="G9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>80000</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="2" t="s">
+      <c r="G10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>80000</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="0" t="n">
+      <c r="G11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <v>80000</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="2" t="s">
+      <c r="G12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="J12" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>80000</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="0" t="n">
+      <c r="G13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="1" t="n">
         <v>99998888</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="1" t="n">
         <v>80000</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="0" t="n">
+      <c r="G14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="J14" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="3" t="s">
         <v>17</v>
       </c>
     </row>
